--- a/CEN3907C Effort Log.xlsx
+++ b/CEN3907C Effort Log.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Joshua" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Tyler" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Augustus" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Andrew" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
@@ -20,6 +20,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C4">
+      <text>
+        <t xml:space="preserve">Design Draft Finalization and Meeting
+	-Joshua</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B4">
       <text>
         <t xml:space="preserve">Work on Design Draft
@@ -38,6 +44,46 @@
       <text>
         <t xml:space="preserve">Meeting + Research
 	-Joshua</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B4">
+      <text>
+        <t xml:space="preserve">We discussed each others progress on the parts of the design draft and gave each other feedback about the parts we have done
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H2">
+      <text>
+        <t xml:space="preserve">I first spent sometime researching the various microchips we could possibly use. We decided it would either be a DW3000 or a RFID chip so I did some research on the DW3000 since that is the idea we are going with for now. Then I spent time finding the pin layouts for the two chip componts that will be in the football the DW3000 and the nRF52 and did the draft schematic and told how we would connect them for SPI use.
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E2">
+      <text>
+        <t xml:space="preserve">We made changes to our design and switched which type of microcontroller would be sending and receiving data from the football
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D2">
+      <text>
+        <t xml:space="preserve">I was working on the draft schematic for the design draft so I spent my time researching how all our hardware was communicating and then I created a first draft of the draft schematic and put it in the document
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C2">
+      <text>
+        <t xml:space="preserve">Today we had our first meeting where we discussed the project and started working on the design draft.
+	-Andrew Miller</t>
       </text>
     </comment>
   </commentList>
@@ -530,7 +576,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +610,9 @@
       <c r="B4" s="5">
         <v>2.0</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -572,7 +620,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="6">
         <f>SUM(B4:H4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1586,20 +1634,30 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.0</v>
+      </c>
       <c r="I2" s="6">
         <f>SUM(B2:H2)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1630,8 +1688,12 @@
     </row>
     <row r="4">
       <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1639,7 +1701,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="6">
         <f>SUM(B4:H4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2606,6 +2668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2653,19 +2716,23 @@
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.0</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="6">
         <f>SUM(B2:H2)</f>
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>0</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="3">
@@ -2696,8 +2763,12 @@
     </row>
     <row r="4">
       <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2705,7 +2776,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="6">
         <f>SUM(B4:H4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3664,6 +3735,9 @@
       <c r="A53" s="9"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3719,19 +3793,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.0</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5">
+        <v>2.0</v>
+      </c>
       <c r="I2" s="6">
         <f>SUM(B2:H2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3762,7 +3844,9 @@
     </row>
     <row r="4">
       <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>1.0</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3771,7 +3855,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="6">
         <f>SUM(B4:H4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4730,7 +4814,8 @@
       <c r="A53" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/CEN3907C Effort Log.xlsx
+++ b/CEN3907C Effort Log.xlsx
@@ -20,6 +20,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C6">
+      <text>
+        <t xml:space="preserve">Meeting and Research
+	-Joshua</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C4">
       <text>
         <t xml:space="preserve">Design Draft Finalization and Meeting
@@ -56,6 +62,64 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C2">
+      <text>
+        <t xml:space="preserve">Forgot to add: had our first meeting, met everyone on the team, and discussed plans for Design Draft
+	-Augustus Rodriguez</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D2">
+      <text>
+        <t xml:space="preserve">Forgot to add: worked on design draft, I worked on the intro as well as some other sections and drew up some system designs for our conceptual understanding of the project but they did not make it to the final Design Draft.
+	-Augustus Rodriguez</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B4">
+      <text>
+        <t xml:space="preserve">Forgot to add: met w/ team on Discord to work on Design Draft.
+	-Augustus Rodriguez</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C4">
+      <text>
+        <t xml:space="preserve">Forgot to add comment: met w/ Carsten/Lucas regarding project and finalized design draft.
+	-Augustus Rodriguez</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C6">
+      <text>
+        <t xml:space="preserve">Met w/ team in Marston Basement to discuss plans for pre-alpha build and plans for dealing with late-delivery of hardware kit for the project.
+	-Augustus Rodriguez</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D4">
+      <text>
+        <t xml:space="preserve">Bought the parts
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C4">
+      <text>
+        <t xml:space="preserve">I forgot to add this but we had a meeting with the team to finish design draft also I met with Carsten and Augustus
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C6">
+      <text>
+        <t xml:space="preserve">Meet with team to discuss status on the parts I bought last week. Parts have not came in yet so we discusses future plans and tried seeing if their is alternatives for the pre alpha build.
+	-Andrew Miller</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B4">
       <text>
         <t xml:space="preserve">We discussed each others progress on the parts of the design draft and gave each other feedback about the parts we have done
@@ -576,7 +640,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +716,9 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -660,7 +726,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <f>SUM(B6:H6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1657,7 +1723,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1733,7 +1799,9 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1741,7 +1809,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <f>SUM(B6:H6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2732,7 +2800,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>6.92</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="3">
@@ -2808,7 +2876,9 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5">
+        <v>2.5</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2816,7 +2886,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <f>SUM(B6:H6)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -3738,7 +3808,8 @@
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3813,7 +3884,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
@@ -3847,15 +3918,19 @@
       <c r="B4" s="5">
         <v>1.0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="6">
         <f>SUM(B4:H4)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -3887,7 +3962,9 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3895,7 +3972,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <f>SUM(B6:H6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">

--- a/CEN3907C Effort Log.xlsx
+++ b/CEN3907C Effort Log.xlsx
@@ -20,6 +20,24 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C8">
+      <text>
+        <t xml:space="preserve">Worked on triangulation script, meeting, mockup for triangulation systems
+	-Joshua</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F6">
+      <text>
+        <t xml:space="preserve">Peer evaluations, further research and documentation into UWB triangulation and BLE communications
+	-Joshua</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E6">
+      <text>
+        <t xml:space="preserve">Meeting + Research and testing bluetooth communication with python
+	-Joshua</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C6">
       <text>
         <t xml:space="preserve">Meeting and Research
@@ -62,6 +80,35 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B8">
+      <text>
+        <t xml:space="preserve">Housekeeping for dev board shipping
+	-shockedcurve453</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C8">
+      <text>
+        <t xml:space="preserve">Lucas meeting
+Began ESP backend work
+	-shockedcurve453</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C8">
+      <text>
+        <t xml:space="preserve">Meeting w Lucas, started frontend, worked on pre-alpha build
+	-Augustus Rodriguez</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C2">
       <text>
         <t xml:space="preserve">Forgot to add: had our first meeting, met everyone on the team, and discussed plans for Design Draft
@@ -96,12 +143,30 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C8">
+      <text>
+        <t xml:space="preserve">Had meeting with Lucas and worked with team on the frontend stuff for the pre-alpha build
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8">
+      <text>
+        <t xml:space="preserve">Spent time trying to contact the shipping people to see where the products I bought are at but unfortunately they are in China so I could not call them and they rejected my email I sent them for reasons unknown
+	-Andrew Miller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F6">
+      <text>
+        <t xml:space="preserve">Bought DW3000
+	-Andrew Miller</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D4">
       <text>
         <t xml:space="preserve">Bought the parts
@@ -640,7 +705,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -720,13 +785,17 @@
         <v>2.0</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.5</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <f>SUM(B6:H6)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -758,7 +827,9 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -766,7 +837,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="6">
         <f>SUM(B8:H8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1723,7 +1794,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1803,13 +1874,17 @@
         <v>2.0</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.0</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <f>SUM(B6:H6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1840,16 +1915,20 @@
     </row>
     <row r="8">
       <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6">
         <f>SUM(B8:H8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1881,7 +1960,7 @@
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2728,7 +2807,8 @@
       <c r="A53" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2800,7 +2880,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>9.42</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="3">
@@ -2917,8 +2997,10 @@
     </row>
     <row r="8">
       <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>2.0</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2926,7 +3008,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="6">
         <f>SUM(B8:H8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3884,7 +3966,7 @@
       </c>
       <c r="M2" s="6">
         <f>SUM(I2:I52)</f>
-        <v>12.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -3967,12 +4049,14 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6">
         <f>SUM(B6:H6)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -4003,8 +4087,12 @@
     </row>
     <row r="8">
       <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.5</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4012,7 +4100,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="6">
         <f>SUM(B8:H8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">

--- a/CEN3907C Effort Log.xlsx
+++ b/CEN3907C Effort Log.xlsx
@@ -1,73 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Rico's Stuff\School\Courses\CEN3907C\GatorBall\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB71E9C8-4837-4016-85B7-4D8F94C9DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Joshua" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Tyler" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Augustus" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Andrew" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet name="Joshua" sheetId="1" r:id="rId1"/>
+    <sheet name="Tyler" sheetId="2" r:id="rId2"/>
+    <sheet name="Augustus" sheetId="3" r:id="rId3"/>
+    <sheet name="Andrew" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C8">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t xml:space="preserve">Worked on triangulation script, meeting, mockup for triangulation systems
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Meeting + Research
 	-Joshua</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F6">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t xml:space="preserve">Peer evaluations, further research and documentation into UWB triangulation and BLE communications
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Design Draft and Reseach, class hours
 	-Joshua</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E6">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">Meeting + Research and testing bluetooth communication with python
-	-Joshua</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C6">
-      <text>
-        <t xml:space="preserve">Meeting and Research
-	-Joshua</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">Design Draft Finalization and Meeting
-	-Joshua</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4">
-      <text>
-        <t xml:space="preserve">Work on Design Draft
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Work on Design Draft
 	-Joshua
 + Team meeting
 	-Joshua</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E2">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">Design Draft and Reseach, class hours
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Design Draft Finalization and Meeting
 	-Joshua</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C2">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">Meeting + Research
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Meeting and Research
 	-Joshua</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Meeting + Research and testing bluetooth communication with python
+	-Joshua</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Peer evaluations, further research and documentation into UWB triangulation and BLE communications
+	-Joshua</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Worked on triangulation script, meeting, mockup for triangulation systems
+	-Joshua</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -75,22 +148,38 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B8">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">Housekeeping for dev board shipping
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Housekeeping for dev board shipping
 	-shockedcurve453</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C8">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">Lucas meeting
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Lucas meeting
 Began ESP backend work
 	-shockedcurve453</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -98,45 +187,93 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C8">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <t xml:space="preserve">Meeting w Lucas, started frontend, worked on pre-alpha build
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Forgot to add: had our first meeting, met everyone on the team, and discussed plans for Design Draft
 	-Augustus Rodriguez</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C2">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <t xml:space="preserve">Forgot to add: had our first meeting, met everyone on the team, and discussed plans for Design Draft
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Forgot to add: worked on design draft, I worked on the intro as well as some other sections and drew up some system designs for our conceptual understanding of the project but they did not make it to the final Design Draft.
 	-Augustus Rodriguez</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D2">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
-        <t xml:space="preserve">Forgot to add: worked on design draft, I worked on the intro as well as some other sections and drew up some system designs for our conceptual understanding of the project but they did not make it to the final Design Draft.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Forgot to add: met w/ team on Discord to work on Design Draft.
 	-Augustus Rodriguez</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
-        <t xml:space="preserve">Forgot to add: met w/ team on Discord to work on Design Draft.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Forgot to add comment: met w/ Carsten/Lucas regarding project and finalized design draft.
 	-Augustus Rodriguez</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
-        <t xml:space="preserve">Forgot to add comment: met w/ Carsten/Lucas regarding project and finalized design draft.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Met w/ team in Marston Basement to discuss plans for pre-alpha build and plans for dealing with late-delivery of hardware kit for the project.
 	-Augustus Rodriguez</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C6">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">Met w/ team in Marston Basement to discuss plans for pre-alpha build and plans for dealing with late-delivery of hardware kit for the project.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Meeting w Lucas, started frontend, worked on pre-alpha build
 	-Augustus Rodriguez</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -144,75 +281,163 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C8">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
-        <t xml:space="preserve">Had meeting with Lucas and worked with team on the frontend stuff for the pre-alpha build
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Today we had our first meeting where we discussed the project and started working on the design draft.
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B8">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
-        <t xml:space="preserve">Spent time trying to contact the shipping people to see where the products I bought are at but unfortunately they are in China so I could not call them and they rejected my email I sent them for reasons unknown
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>I was working on the draft schematic for the design draft so I spent my time researching how all our hardware was communicating and then I created a first draft of the draft schematic and put it in the document
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F6">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
-        <t xml:space="preserve">Bought DW3000
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>We made changes to our design and switched which type of microcontroller would be sending and receiving data from the football
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
-        <t xml:space="preserve">Bought the parts
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>I first spent sometime researching the various microchips we could possibly use. We decided it would either be a DW3000 or a RFID chip so I did some research on the DW3000 since that is the idea we are going with for now. Then I spent time finding the pin layouts for the two chip componts that will be in the football the DW3000 and the nRF52 and did the draft schematic and told how we would connect them for SPI use.
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C4">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
-        <t xml:space="preserve">I forgot to add this but we had a meeting with the team to finish design draft also I met with Carsten and Augustus
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>We discussed each others progress on the parts of the design draft and gave each other feedback about the parts we have done
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C6">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
-        <t xml:space="preserve">Meet with team to discuss status on the parts I bought last week. Parts have not came in yet so we discusses future plans and tried seeing if their is alternatives for the pre alpha build.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>I forgot to add this but we had a meeting with the team to finish design draft also I met with Carsten and Augustus
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
-        <t xml:space="preserve">We discussed each others progress on the parts of the design draft and gave each other feedback about the parts we have done
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Bought the parts
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H2">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
-        <t xml:space="preserve">I first spent sometime researching the various microchips we could possibly use. We decided it would either be a DW3000 or a RFID chip so I did some research on the DW3000 since that is the idea we are going with for now. Then I spent time finding the pin layouts for the two chip componts that will be in the football the DW3000 and the nRF52 and did the draft schematic and told how we would connect them for SPI use.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Meet with team to discuss status on the parts I bought last week. Parts have not came in yet so we discusses future plans and tried seeing if their is alternatives for the pre alpha build.
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E2">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
-        <t xml:space="preserve">We made changes to our design and switched which type of microcontroller would be sending and receiving data from the football
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Bought DW3000
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D2">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
-        <t xml:space="preserve">I was working on the draft schematic for the design draft so I spent my time researching how all our hardware was communicating and then I created a first draft of the draft schematic and put it in the document
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Spent time trying to contact the shipping people to see where the products I bought are at but unfortunately they are in China so I could not call them and they rejected my email I sent them for reasons unknown
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C2">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
-        <t xml:space="preserve">Today we had our first meeting where we discussed the project and started working on the design draft.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Had meeting with Lucas and worked with team on the frontend stuff for the pre-alpha build
 	-Andrew Miller</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -318,34 +543,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -355,7 +579,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -383,66 +607,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -632,43 +834,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45565.0</v>
+        <v>45565</v>
       </c>
       <c r="C1" s="2">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="D1" s="2">
-        <v>45567.0</v>
+        <v>45567</v>
       </c>
       <c r="E1" s="2">
-        <v>45568.0</v>
+        <v>45568</v>
       </c>
       <c r="F1" s="2">
-        <v>45569.0</v>
+        <v>45569</v>
       </c>
       <c r="G1" s="2">
-        <v>45570.0</v>
+        <v>45570</v>
       </c>
       <c r="H1" s="2">
-        <v>45571.0</v>
+        <v>45571</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -681,193 +888,1295 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5">
-        <v>2.0</v>
+      <c r="C2" s="4">
+        <v>2</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="5">
-        <v>2.0</v>
+      <c r="E2" s="4">
+        <v>2</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <f>SUM(I2:I52)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45572.0</v>
+        <v>45572</v>
       </c>
       <c r="C3" s="2">
-        <v>45573.0</v>
+        <v>45573</v>
       </c>
       <c r="D3" s="2">
-        <v>45574.0</v>
+        <v>45574</v>
       </c>
       <c r="E3" s="2">
-        <v>45575.0</v>
+        <v>45575</v>
       </c>
       <c r="F3" s="2">
-        <v>45576.0</v>
+        <v>45576</v>
       </c>
       <c r="G3" s="2">
-        <v>45577.0</v>
+        <v>45577</v>
       </c>
       <c r="H3" s="2">
-        <v>45578.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.0</v>
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <f>SUM(B4:H4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>45579.0</v>
+        <v>45579</v>
       </c>
       <c r="C5" s="2">
-        <v>45580.0</v>
+        <v>45580</v>
       </c>
       <c r="D5" s="2">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="E5" s="2">
-        <v>45582.0</v>
+        <v>45582</v>
       </c>
       <c r="F5" s="2">
-        <v>45583.0</v>
+        <v>45583</v>
       </c>
       <c r="G5" s="2">
-        <v>45584.0</v>
+        <v>45584</v>
       </c>
       <c r="H5" s="2">
-        <v>45585.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <v>2.0</v>
+      <c r="C6" s="4">
+        <v>2</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1.5</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <f>SUM(B6:H6)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>45586.0</v>
+        <v>45586</v>
       </c>
       <c r="C7" s="2">
-        <v>45587.0</v>
+        <v>45587</v>
       </c>
       <c r="D7" s="2">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="E7" s="2">
-        <v>45589.0</v>
+        <v>45589</v>
       </c>
       <c r="F7" s="2">
-        <v>45590.0</v>
+        <v>45590</v>
       </c>
       <c r="G7" s="2">
-        <v>45591.0</v>
+        <v>45591</v>
       </c>
       <c r="H7" s="2">
-        <v>45592.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="5">
-        <v>2.0</v>
+      <c r="C8" s="4">
+        <v>2</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <f>SUM(B8:H8)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>45593.0</v>
+        <v>45593</v>
       </c>
       <c r="C9" s="2">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="D9" s="2">
-        <v>45595.0</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2">
-        <v>45596.0</v>
+        <v>45596</v>
       </c>
       <c r="F9" s="2">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="G9" s="2">
-        <v>45598.0</v>
+        <v>45598</v>
       </c>
       <c r="H9" s="2">
-        <v>45599.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3">
+        <f>SUM(B10:H10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45600</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45601</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45602</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45603</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45604</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45605</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3">
+        <f>SUM(B12:H12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45607</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45608</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45609</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45610</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45611</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45612</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3">
+        <f>SUM(B14:H14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45613</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45614</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45615</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45616</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45617</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45618</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3">
+        <f>SUM(B16:H16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45620</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45621</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45623</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45624</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45625</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3">
+        <f>SUM(B18:H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45627</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45628</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45629</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45630</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45631</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45632</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3">
+        <f>SUM(B20:H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45634</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45635</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45636</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45637</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45638</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45639</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3">
+        <f>SUM(B22:H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45670</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45671</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45672</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45673</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45674</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3">
+        <f>SUM(B24:H24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45678</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45680</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45681</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45682</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3">
+        <f>SUM(B26:H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45684</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45685</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45686</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45687</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45688</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45689</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3">
+        <f>SUM(B28:H28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.3">
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45690</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45691</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45692</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45693</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45694</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45695</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3">
+        <f>SUM(B30:H30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.3">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45697</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45698</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45699</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45700</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45701</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45702</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3">
+        <f>SUM(B32:H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.3">
+      <c r="A33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45704</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45705</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45706</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45707</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45708</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45709</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3">
+        <f>SUM(B34:H34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.3">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45711</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45712</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45713</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45714</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45715</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45716</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3">
+        <f>SUM(B36:H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.3">
+      <c r="A37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45718</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45719</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45720</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45721</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45722</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45723</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3">
+        <f>SUM(B38:H38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.3">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45725</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45726</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45727</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45728</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45729</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45730</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3">
+        <f>SUM(B40:H40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.3">
+      <c r="A41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45732</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45733</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45734</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45735</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45736</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45737</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="3">
+        <f>SUM(B42:H42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.3">
+      <c r="A43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45739</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45740</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45741</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45742</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45743</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45744</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3">
+        <f>SUM(B44:H44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12.3">
+      <c r="A45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45746</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45747</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45748</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45749</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45750</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45751</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3">
+        <f>SUM(B46:H46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12.3">
+      <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45753</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45754</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45755</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45756</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45757</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45758</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3">
+        <f>SUM(B48:H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12.3">
+      <c r="A49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45760</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45761</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45762</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45763</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45764</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45765</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3">
+        <f>SUM(B50:H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12.3">
+      <c r="A51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45767</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45768</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45769</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45770</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45771</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45772</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.3">
+      <c r="I52" s="3">
+        <f>SUM(B52:H52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="12.3">
+      <c r="A53" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>45565</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45567</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45568</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45569</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45570</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45571</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUM(B2:H2)</f>
+        <v>8</v>
+      </c>
+      <c r="M2" s="3">
+        <f>SUM(I2:I52)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45572</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45573</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45574</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45575</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45576</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45577</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3">
+        <f>SUM(B4:H4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45579</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45580</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45581</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45582</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45583</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45584</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3">
+        <f>SUM(B6:H6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45586</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45587</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45588</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45589</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45590</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45591</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3">
+        <f>SUM(B8:H8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45593</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45594</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45596</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45597</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45598</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -875,39 +2184,39 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <f>SUM(B10:H10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>45600.0</v>
+        <v>45600</v>
       </c>
       <c r="C11" s="2">
-        <v>45601.0</v>
+        <v>45601</v>
       </c>
       <c r="D11" s="2">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="E11" s="2">
-        <v>45603.0</v>
+        <v>45603</v>
       </c>
       <c r="F11" s="2">
-        <v>45604.0</v>
+        <v>45604</v>
       </c>
       <c r="G11" s="2">
-        <v>45605.0</v>
+        <v>45605</v>
       </c>
       <c r="H11" s="2">
-        <v>45606.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -915,39 +2224,39 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <f>SUM(B12:H12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45607.0</v>
+        <v>45607</v>
       </c>
       <c r="C13" s="2">
-        <v>45608.0</v>
+        <v>45608</v>
       </c>
       <c r="D13" s="2">
-        <v>45609.0</v>
+        <v>45609</v>
       </c>
       <c r="E13" s="2">
-        <v>45610.0</v>
+        <v>45610</v>
       </c>
       <c r="F13" s="2">
-        <v>45611.0</v>
+        <v>45611</v>
       </c>
       <c r="G13" s="2">
-        <v>45612.0</v>
+        <v>45612</v>
       </c>
       <c r="H13" s="2">
-        <v>45613.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -955,39 +2264,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>45613.0</v>
+        <v>45613</v>
       </c>
       <c r="C15" s="2">
-        <v>45614.0</v>
+        <v>45614</v>
       </c>
       <c r="D15" s="2">
-        <v>45615.0</v>
+        <v>45615</v>
       </c>
       <c r="E15" s="2">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="F15" s="2">
-        <v>45617.0</v>
+        <v>45617</v>
       </c>
       <c r="G15" s="2">
-        <v>45618.0</v>
+        <v>45618</v>
       </c>
       <c r="H15" s="2">
-        <v>45619.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -995,39 +2304,39 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <f>SUM(B16:H16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>45620.0</v>
+        <v>45620</v>
       </c>
       <c r="C17" s="2">
-        <v>45621.0</v>
+        <v>45621</v>
       </c>
       <c r="D17" s="2">
-        <v>45622.0</v>
+        <v>45622</v>
       </c>
       <c r="E17" s="2">
-        <v>45623.0</v>
+        <v>45623</v>
       </c>
       <c r="F17" s="2">
-        <v>45624.0</v>
+        <v>45624</v>
       </c>
       <c r="G17" s="2">
-        <v>45625.0</v>
+        <v>45625</v>
       </c>
       <c r="H17" s="2">
-        <v>45626.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1035,39 +2344,39 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <f>SUM(B18:H18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>45627.0</v>
+        <v>45627</v>
       </c>
       <c r="C19" s="2">
-        <v>45628.0</v>
+        <v>45628</v>
       </c>
       <c r="D19" s="2">
-        <v>45629.0</v>
+        <v>45629</v>
       </c>
       <c r="E19" s="2">
-        <v>45630.0</v>
+        <v>45630</v>
       </c>
       <c r="F19" s="2">
-        <v>45631.0</v>
+        <v>45631</v>
       </c>
       <c r="G19" s="2">
-        <v>45632.0</v>
+        <v>45632</v>
       </c>
       <c r="H19" s="2">
-        <v>45633.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1075,39 +2384,39 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <f>SUM(B20:H20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>45634.0</v>
+        <v>45634</v>
       </c>
       <c r="C21" s="2">
-        <v>45635.0</v>
+        <v>45635</v>
       </c>
       <c r="D21" s="2">
-        <v>45636.0</v>
+        <v>45636</v>
       </c>
       <c r="E21" s="2">
-        <v>45637.0</v>
+        <v>45637</v>
       </c>
       <c r="F21" s="2">
-        <v>45638.0</v>
+        <v>45638</v>
       </c>
       <c r="G21" s="2">
-        <v>45639.0</v>
+        <v>45639</v>
       </c>
       <c r="H21" s="2">
-        <v>45640.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1115,39 +2424,39 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <f>SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="C23" s="2">
-        <v>45671.0</v>
+        <v>45671</v>
       </c>
       <c r="D23" s="2">
-        <v>45672.0</v>
+        <v>45672</v>
       </c>
       <c r="E23" s="2">
-        <v>45673.0</v>
+        <v>45673</v>
       </c>
       <c r="F23" s="2">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="G23" s="2">
-        <v>45675.0</v>
+        <v>45675</v>
       </c>
       <c r="H23" s="2">
-        <v>45676.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1155,39 +2464,39 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <f>SUM(B24:H24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>45677.0</v>
+        <v>45677</v>
       </c>
       <c r="C25" s="2">
-        <v>45678.0</v>
+        <v>45678</v>
       </c>
       <c r="D25" s="2">
-        <v>45679.0</v>
+        <v>45679</v>
       </c>
       <c r="E25" s="2">
-        <v>45680.0</v>
+        <v>45680</v>
       </c>
       <c r="F25" s="2">
-        <v>45681.0</v>
+        <v>45681</v>
       </c>
       <c r="G25" s="2">
-        <v>45682.0</v>
+        <v>45682</v>
       </c>
       <c r="H25" s="2">
-        <v>45683.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1195,39 +2504,39 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <f>SUM(B26:H26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>45684.0</v>
+        <v>45684</v>
       </c>
       <c r="C27" s="2">
-        <v>45685.0</v>
+        <v>45685</v>
       </c>
       <c r="D27" s="2">
-        <v>45686.0</v>
+        <v>45686</v>
       </c>
       <c r="E27" s="2">
-        <v>45687.0</v>
+        <v>45687</v>
       </c>
       <c r="F27" s="2">
-        <v>45688.0</v>
+        <v>45688</v>
       </c>
       <c r="G27" s="2">
-        <v>45689.0</v>
+        <v>45689</v>
       </c>
       <c r="H27" s="2">
-        <v>45690.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7"/>
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.3">
+      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1235,39 +2544,39 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <f>SUM(B28:H28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:9" ht="12.3">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>45690.0</v>
+        <v>45690</v>
       </c>
       <c r="C29" s="2">
-        <v>45691.0</v>
+        <v>45691</v>
       </c>
       <c r="D29" s="2">
-        <v>45692.0</v>
+        <v>45692</v>
       </c>
       <c r="E29" s="2">
-        <v>45693.0</v>
+        <v>45693</v>
       </c>
       <c r="F29" s="2">
-        <v>45694.0</v>
+        <v>45694</v>
       </c>
       <c r="G29" s="2">
-        <v>45695.0</v>
+        <v>45695</v>
       </c>
       <c r="H29" s="2">
-        <v>45696.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7"/>
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1275,39 +2584,39 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <f>SUM(B30:H30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" ht="12.3">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2">
-        <v>45697.0</v>
+        <v>45697</v>
       </c>
       <c r="C31" s="2">
-        <v>45698.0</v>
+        <v>45698</v>
       </c>
       <c r="D31" s="2">
-        <v>45699.0</v>
+        <v>45699</v>
       </c>
       <c r="E31" s="2">
-        <v>45700.0</v>
+        <v>45700</v>
       </c>
       <c r="F31" s="2">
-        <v>45701.0</v>
+        <v>45701</v>
       </c>
       <c r="G31" s="2">
-        <v>45702.0</v>
+        <v>45702</v>
       </c>
       <c r="H31" s="2">
-        <v>45703.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7"/>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1315,39 +2624,39 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <f>SUM(B32:H32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:9" ht="12.3">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="2">
-        <v>45704.0</v>
+        <v>45704</v>
       </c>
       <c r="C33" s="2">
-        <v>45705.0</v>
+        <v>45705</v>
       </c>
       <c r="D33" s="2">
-        <v>45706.0</v>
+        <v>45706</v>
       </c>
       <c r="E33" s="2">
-        <v>45707.0</v>
+        <v>45707</v>
       </c>
       <c r="F33" s="2">
-        <v>45708.0</v>
+        <v>45708</v>
       </c>
       <c r="G33" s="2">
-        <v>45709.0</v>
+        <v>45709</v>
       </c>
       <c r="H33" s="2">
-        <v>45710.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7"/>
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.3">
+      <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1355,39 +2664,39 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <f>SUM(B34:H34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" ht="12.3">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>45711.0</v>
+        <v>45711</v>
       </c>
       <c r="C35" s="2">
-        <v>45712.0</v>
+        <v>45712</v>
       </c>
       <c r="D35" s="2">
-        <v>45713.0</v>
+        <v>45713</v>
       </c>
       <c r="E35" s="2">
-        <v>45714.0</v>
+        <v>45714</v>
       </c>
       <c r="F35" s="2">
-        <v>45715.0</v>
+        <v>45715</v>
       </c>
       <c r="G35" s="2">
-        <v>45716.0</v>
+        <v>45716</v>
       </c>
       <c r="H35" s="2">
-        <v>45717.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1395,39 +2704,39 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <f>SUM(B36:H36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:9" ht="12.3">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="2">
-        <v>45718.0</v>
+        <v>45718</v>
       </c>
       <c r="C37" s="2">
-        <v>45719.0</v>
+        <v>45719</v>
       </c>
       <c r="D37" s="2">
-        <v>45720.0</v>
+        <v>45720</v>
       </c>
       <c r="E37" s="2">
-        <v>45721.0</v>
+        <v>45721</v>
       </c>
       <c r="F37" s="2">
-        <v>45722.0</v>
+        <v>45722</v>
       </c>
       <c r="G37" s="2">
-        <v>45723.0</v>
+        <v>45723</v>
       </c>
       <c r="H37" s="2">
-        <v>45724.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1435,39 +2744,39 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <f>SUM(B38:H38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" ht="12.3">
+      <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="2">
-        <v>45725.0</v>
+        <v>45725</v>
       </c>
       <c r="C39" s="2">
-        <v>45726.0</v>
+        <v>45726</v>
       </c>
       <c r="D39" s="2">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="E39" s="2">
-        <v>45728.0</v>
+        <v>45728</v>
       </c>
       <c r="F39" s="2">
-        <v>45729.0</v>
+        <v>45729</v>
       </c>
       <c r="G39" s="2">
-        <v>45730.0</v>
+        <v>45730</v>
       </c>
       <c r="H39" s="2">
-        <v>45731.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7"/>
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.3">
+      <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1475,39 +2784,39 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="6">
+      <c r="I40" s="3">
         <f>SUM(B40:H40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:9" ht="12.3">
+      <c r="A41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="2">
-        <v>45732.0</v>
+        <v>45732</v>
       </c>
       <c r="C41" s="2">
-        <v>45733.0</v>
+        <v>45733</v>
       </c>
       <c r="D41" s="2">
-        <v>45734.0</v>
+        <v>45734</v>
       </c>
       <c r="E41" s="2">
-        <v>45735.0</v>
+        <v>45735</v>
       </c>
       <c r="F41" s="2">
-        <v>45736.0</v>
+        <v>45736</v>
       </c>
       <c r="G41" s="2">
-        <v>45737.0</v>
+        <v>45737</v>
       </c>
       <c r="H41" s="2">
-        <v>45738.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7"/>
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.3">
+      <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1515,39 +2824,39 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <f>SUM(B42:H42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:9" ht="12.3">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="2">
-        <v>45739.0</v>
+        <v>45739</v>
       </c>
       <c r="C43" s="2">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="D43" s="2">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="E43" s="2">
-        <v>45742.0</v>
+        <v>45742</v>
       </c>
       <c r="F43" s="2">
-        <v>45743.0</v>
+        <v>45743</v>
       </c>
       <c r="G43" s="2">
-        <v>45744.0</v>
+        <v>45744</v>
       </c>
       <c r="H43" s="2">
-        <v>45745.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7"/>
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.3">
+      <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1555,39 +2864,39 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <f>SUM(B44:H44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" ht="12.3">
+      <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="2">
-        <v>45746.0</v>
+        <v>45746</v>
       </c>
       <c r="C45" s="2">
-        <v>45747.0</v>
+        <v>45747</v>
       </c>
       <c r="D45" s="2">
-        <v>45748.0</v>
+        <v>45748</v>
       </c>
       <c r="E45" s="2">
-        <v>45749.0</v>
+        <v>45749</v>
       </c>
       <c r="F45" s="2">
-        <v>45750.0</v>
+        <v>45750</v>
       </c>
       <c r="G45" s="2">
-        <v>45751.0</v>
+        <v>45751</v>
       </c>
       <c r="H45" s="2">
-        <v>45752.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7"/>
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.3">
+      <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1595,39 +2904,39 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <f>SUM(B46:H46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:9" ht="12.3">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="2">
-        <v>45753.0</v>
+        <v>45753</v>
       </c>
       <c r="C47" s="2">
-        <v>45754.0</v>
+        <v>45754</v>
       </c>
       <c r="D47" s="2">
-        <v>45755.0</v>
+        <v>45755</v>
       </c>
       <c r="E47" s="2">
-        <v>45756.0</v>
+        <v>45756</v>
       </c>
       <c r="F47" s="2">
-        <v>45757.0</v>
+        <v>45757</v>
       </c>
       <c r="G47" s="2">
-        <v>45758.0</v>
+        <v>45758</v>
       </c>
       <c r="H47" s="2">
-        <v>45759.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7"/>
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.3">
+      <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1635,39 +2944,39 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <f>SUM(B48:H48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:9" ht="12.3">
+      <c r="A49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="2">
-        <v>45760.0</v>
+        <v>45760</v>
       </c>
       <c r="C49" s="2">
-        <v>45761.0</v>
+        <v>45761</v>
       </c>
       <c r="D49" s="2">
-        <v>45762.0</v>
+        <v>45762</v>
       </c>
       <c r="E49" s="2">
-        <v>45763.0</v>
+        <v>45763</v>
       </c>
       <c r="F49" s="2">
-        <v>45764.0</v>
+        <v>45764</v>
       </c>
       <c r="G49" s="2">
-        <v>45765.0</v>
+        <v>45765</v>
       </c>
       <c r="H49" s="2">
-        <v>45766.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7"/>
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.3">
+      <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1675,86 +2984,88 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="6">
+      <c r="I50" s="3">
         <f>SUM(B50:H50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:9" ht="12.3">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="2">
-        <v>45767.0</v>
+        <v>45767</v>
       </c>
       <c r="C51" s="2">
-        <v>45768.0</v>
+        <v>45768</v>
       </c>
       <c r="D51" s="2">
-        <v>45769.0</v>
+        <v>45769</v>
       </c>
       <c r="E51" s="2">
-        <v>45770.0</v>
+        <v>45770</v>
       </c>
       <c r="F51" s="2">
-        <v>45771.0</v>
+        <v>45771</v>
       </c>
       <c r="G51" s="2">
-        <v>45772.0</v>
+        <v>45772</v>
       </c>
       <c r="H51" s="2">
-        <v>45773.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="I52" s="6">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.3">
+      <c r="I52" s="3">
         <f>SUM(B52:H52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:9" ht="12.3">
+      <c r="A53" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45565.0</v>
+        <v>45565</v>
       </c>
       <c r="C1" s="2">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="D1" s="2">
-        <v>45567.0</v>
+        <v>45567</v>
       </c>
       <c r="E1" s="2">
-        <v>45568.0</v>
+        <v>45568</v>
       </c>
       <c r="F1" s="2">
-        <v>45569.0</v>
+        <v>45569</v>
       </c>
       <c r="G1" s="2">
-        <v>45570.0</v>
+        <v>45570</v>
       </c>
       <c r="H1" s="2">
-        <v>45571.0</v>
+        <v>45571</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -1767,238 +3078,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>8</v>
-      </c>
-      <c r="M2" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="M2" s="3">
         <f>SUM(I2:I52)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45572.0</v>
+        <v>45572</v>
       </c>
       <c r="C3" s="2">
-        <v>45573.0</v>
+        <v>45573</v>
       </c>
       <c r="D3" s="2">
-        <v>45574.0</v>
+        <v>45574</v>
       </c>
       <c r="E3" s="2">
-        <v>45575.0</v>
+        <v>45575</v>
       </c>
       <c r="F3" s="2">
-        <v>45576.0</v>
+        <v>45576</v>
       </c>
       <c r="G3" s="2">
-        <v>45577.0</v>
+        <v>45577</v>
       </c>
       <c r="H3" s="2">
-        <v>45578.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.0</v>
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <f>SUM(B4:H4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>45579.0</v>
+        <v>45579</v>
       </c>
       <c r="C5" s="2">
-        <v>45580.0</v>
+        <v>45580</v>
       </c>
       <c r="D5" s="2">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="E5" s="2">
-        <v>45582.0</v>
+        <v>45582</v>
       </c>
       <c r="F5" s="2">
-        <v>45583.0</v>
+        <v>45583</v>
       </c>
       <c r="G5" s="2">
-        <v>45584.0</v>
+        <v>45584</v>
       </c>
       <c r="H5" s="2">
-        <v>45585.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <v>2.0</v>
+      <c r="C6" s="4">
+        <v>2.5</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <f>SUM(B6:H6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>45586.0</v>
+        <v>45586</v>
       </c>
       <c r="C7" s="2">
-        <v>45587.0</v>
+        <v>45587</v>
       </c>
       <c r="D7" s="2">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="E7" s="2">
-        <v>45589.0</v>
+        <v>45589</v>
       </c>
       <c r="F7" s="2">
-        <v>45590.0</v>
+        <v>45590</v>
       </c>
       <c r="G7" s="2">
-        <v>45591.0</v>
+        <v>45591</v>
       </c>
       <c r="H7" s="2">
-        <v>45592.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <f>SUM(B8:H8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>45593.0</v>
+        <v>45593</v>
       </c>
       <c r="C9" s="2">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="D9" s="2">
-        <v>45595.0</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2">
-        <v>45596.0</v>
+        <v>45596</v>
       </c>
       <c r="F9" s="2">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="G9" s="2">
-        <v>45598.0</v>
+        <v>45598</v>
       </c>
       <c r="H9" s="2">
-        <v>45599.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <f>SUM(B10:H10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>45600.0</v>
+        <v>45600</v>
       </c>
       <c r="C11" s="2">
-        <v>45601.0</v>
+        <v>45601</v>
       </c>
       <c r="D11" s="2">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="E11" s="2">
-        <v>45603.0</v>
+        <v>45603</v>
       </c>
       <c r="F11" s="2">
-        <v>45604.0</v>
+        <v>45604</v>
       </c>
       <c r="G11" s="2">
-        <v>45605.0</v>
+        <v>45605</v>
       </c>
       <c r="H11" s="2">
-        <v>45606.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2006,39 +3305,39 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <f>SUM(B12:H12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45607.0</v>
+        <v>45607</v>
       </c>
       <c r="C13" s="2">
-        <v>45608.0</v>
+        <v>45608</v>
       </c>
       <c r="D13" s="2">
-        <v>45609.0</v>
+        <v>45609</v>
       </c>
       <c r="E13" s="2">
-        <v>45610.0</v>
+        <v>45610</v>
       </c>
       <c r="F13" s="2">
-        <v>45611.0</v>
+        <v>45611</v>
       </c>
       <c r="G13" s="2">
-        <v>45612.0</v>
+        <v>45612</v>
       </c>
       <c r="H13" s="2">
-        <v>45613.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2046,39 +3345,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>45613.0</v>
+        <v>45613</v>
       </c>
       <c r="C15" s="2">
-        <v>45614.0</v>
+        <v>45614</v>
       </c>
       <c r="D15" s="2">
-        <v>45615.0</v>
+        <v>45615</v>
       </c>
       <c r="E15" s="2">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="F15" s="2">
-        <v>45617.0</v>
+        <v>45617</v>
       </c>
       <c r="G15" s="2">
-        <v>45618.0</v>
+        <v>45618</v>
       </c>
       <c r="H15" s="2">
-        <v>45619.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2086,39 +3385,39 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <f>SUM(B16:H16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>45620.0</v>
+        <v>45620</v>
       </c>
       <c r="C17" s="2">
-        <v>45621.0</v>
+        <v>45621</v>
       </c>
       <c r="D17" s="2">
-        <v>45622.0</v>
+        <v>45622</v>
       </c>
       <c r="E17" s="2">
-        <v>45623.0</v>
+        <v>45623</v>
       </c>
       <c r="F17" s="2">
-        <v>45624.0</v>
+        <v>45624</v>
       </c>
       <c r="G17" s="2">
-        <v>45625.0</v>
+        <v>45625</v>
       </c>
       <c r="H17" s="2">
-        <v>45626.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2126,39 +3425,39 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <f>SUM(B18:H18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>45627.0</v>
+        <v>45627</v>
       </c>
       <c r="C19" s="2">
-        <v>45628.0</v>
+        <v>45628</v>
       </c>
       <c r="D19" s="2">
-        <v>45629.0</v>
+        <v>45629</v>
       </c>
       <c r="E19" s="2">
-        <v>45630.0</v>
+        <v>45630</v>
       </c>
       <c r="F19" s="2">
-        <v>45631.0</v>
+        <v>45631</v>
       </c>
       <c r="G19" s="2">
-        <v>45632.0</v>
+        <v>45632</v>
       </c>
       <c r="H19" s="2">
-        <v>45633.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2166,39 +3465,39 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <f>SUM(B20:H20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>45634.0</v>
+        <v>45634</v>
       </c>
       <c r="C21" s="2">
-        <v>45635.0</v>
+        <v>45635</v>
       </c>
       <c r="D21" s="2">
-        <v>45636.0</v>
+        <v>45636</v>
       </c>
       <c r="E21" s="2">
-        <v>45637.0</v>
+        <v>45637</v>
       </c>
       <c r="F21" s="2">
-        <v>45638.0</v>
+        <v>45638</v>
       </c>
       <c r="G21" s="2">
-        <v>45639.0</v>
+        <v>45639</v>
       </c>
       <c r="H21" s="2">
-        <v>45640.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2206,39 +3505,39 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <f>SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="C23" s="2">
-        <v>45671.0</v>
+        <v>45671</v>
       </c>
       <c r="D23" s="2">
-        <v>45672.0</v>
+        <v>45672</v>
       </c>
       <c r="E23" s="2">
-        <v>45673.0</v>
+        <v>45673</v>
       </c>
       <c r="F23" s="2">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="G23" s="2">
-        <v>45675.0</v>
+        <v>45675</v>
       </c>
       <c r="H23" s="2">
-        <v>45676.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2246,39 +3545,39 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <f>SUM(B24:H24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>45677.0</v>
+        <v>45677</v>
       </c>
       <c r="C25" s="2">
-        <v>45678.0</v>
+        <v>45678</v>
       </c>
       <c r="D25" s="2">
-        <v>45679.0</v>
+        <v>45679</v>
       </c>
       <c r="E25" s="2">
-        <v>45680.0</v>
+        <v>45680</v>
       </c>
       <c r="F25" s="2">
-        <v>45681.0</v>
+        <v>45681</v>
       </c>
       <c r="G25" s="2">
-        <v>45682.0</v>
+        <v>45682</v>
       </c>
       <c r="H25" s="2">
-        <v>45683.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2286,39 +3585,39 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <f>SUM(B26:H26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>45684.0</v>
+        <v>45684</v>
       </c>
       <c r="C27" s="2">
-        <v>45685.0</v>
+        <v>45685</v>
       </c>
       <c r="D27" s="2">
-        <v>45686.0</v>
+        <v>45686</v>
       </c>
       <c r="E27" s="2">
-        <v>45687.0</v>
+        <v>45687</v>
       </c>
       <c r="F27" s="2">
-        <v>45688.0</v>
+        <v>45688</v>
       </c>
       <c r="G27" s="2">
-        <v>45689.0</v>
+        <v>45689</v>
       </c>
       <c r="H27" s="2">
-        <v>45690.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7"/>
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.3">
+      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2326,39 +3625,39 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <f>SUM(B28:H28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:9" ht="12.3">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>45690.0</v>
+        <v>45690</v>
       </c>
       <c r="C29" s="2">
-        <v>45691.0</v>
+        <v>45691</v>
       </c>
       <c r="D29" s="2">
-        <v>45692.0</v>
+        <v>45692</v>
       </c>
       <c r="E29" s="2">
-        <v>45693.0</v>
+        <v>45693</v>
       </c>
       <c r="F29" s="2">
-        <v>45694.0</v>
+        <v>45694</v>
       </c>
       <c r="G29" s="2">
-        <v>45695.0</v>
+        <v>45695</v>
       </c>
       <c r="H29" s="2">
-        <v>45696.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7"/>
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2366,39 +3665,39 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <f>SUM(B30:H30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" ht="12.3">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2">
-        <v>45697.0</v>
+        <v>45697</v>
       </c>
       <c r="C31" s="2">
-        <v>45698.0</v>
+        <v>45698</v>
       </c>
       <c r="D31" s="2">
-        <v>45699.0</v>
+        <v>45699</v>
       </c>
       <c r="E31" s="2">
-        <v>45700.0</v>
+        <v>45700</v>
       </c>
       <c r="F31" s="2">
-        <v>45701.0</v>
+        <v>45701</v>
       </c>
       <c r="G31" s="2">
-        <v>45702.0</v>
+        <v>45702</v>
       </c>
       <c r="H31" s="2">
-        <v>45703.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7"/>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2406,39 +3705,39 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <f>SUM(B32:H32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:9" ht="12.3">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="2">
-        <v>45704.0</v>
+        <v>45704</v>
       </c>
       <c r="C33" s="2">
-        <v>45705.0</v>
+        <v>45705</v>
       </c>
       <c r="D33" s="2">
-        <v>45706.0</v>
+        <v>45706</v>
       </c>
       <c r="E33" s="2">
-        <v>45707.0</v>
+        <v>45707</v>
       </c>
       <c r="F33" s="2">
-        <v>45708.0</v>
+        <v>45708</v>
       </c>
       <c r="G33" s="2">
-        <v>45709.0</v>
+        <v>45709</v>
       </c>
       <c r="H33" s="2">
-        <v>45710.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7"/>
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.3">
+      <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2446,39 +3745,39 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <f>SUM(B34:H34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" ht="12.3">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>45711.0</v>
+        <v>45711</v>
       </c>
       <c r="C35" s="2">
-        <v>45712.0</v>
+        <v>45712</v>
       </c>
       <c r="D35" s="2">
-        <v>45713.0</v>
+        <v>45713</v>
       </c>
       <c r="E35" s="2">
-        <v>45714.0</v>
+        <v>45714</v>
       </c>
       <c r="F35" s="2">
-        <v>45715.0</v>
+        <v>45715</v>
       </c>
       <c r="G35" s="2">
-        <v>45716.0</v>
+        <v>45716</v>
       </c>
       <c r="H35" s="2">
-        <v>45717.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2486,39 +3785,39 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <f>SUM(B36:H36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:9" ht="12.3">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="2">
-        <v>45718.0</v>
+        <v>45718</v>
       </c>
       <c r="C37" s="2">
-        <v>45719.0</v>
+        <v>45719</v>
       </c>
       <c r="D37" s="2">
-        <v>45720.0</v>
+        <v>45720</v>
       </c>
       <c r="E37" s="2">
-        <v>45721.0</v>
+        <v>45721</v>
       </c>
       <c r="F37" s="2">
-        <v>45722.0</v>
+        <v>45722</v>
       </c>
       <c r="G37" s="2">
-        <v>45723.0</v>
+        <v>45723</v>
       </c>
       <c r="H37" s="2">
-        <v>45724.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2526,39 +3825,39 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <f>SUM(B38:H38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" ht="12.3">
+      <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="2">
-        <v>45725.0</v>
+        <v>45725</v>
       </c>
       <c r="C39" s="2">
-        <v>45726.0</v>
+        <v>45726</v>
       </c>
       <c r="D39" s="2">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="E39" s="2">
-        <v>45728.0</v>
+        <v>45728</v>
       </c>
       <c r="F39" s="2">
-        <v>45729.0</v>
+        <v>45729</v>
       </c>
       <c r="G39" s="2">
-        <v>45730.0</v>
+        <v>45730</v>
       </c>
       <c r="H39" s="2">
-        <v>45731.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7"/>
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.3">
+      <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2566,39 +3865,39 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="6">
+      <c r="I40" s="3">
         <f>SUM(B40:H40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:9" ht="12.3">
+      <c r="A41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="2">
-        <v>45732.0</v>
+        <v>45732</v>
       </c>
       <c r="C41" s="2">
-        <v>45733.0</v>
+        <v>45733</v>
       </c>
       <c r="D41" s="2">
-        <v>45734.0</v>
+        <v>45734</v>
       </c>
       <c r="E41" s="2">
-        <v>45735.0</v>
+        <v>45735</v>
       </c>
       <c r="F41" s="2">
-        <v>45736.0</v>
+        <v>45736</v>
       </c>
       <c r="G41" s="2">
-        <v>45737.0</v>
+        <v>45737</v>
       </c>
       <c r="H41" s="2">
-        <v>45738.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7"/>
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.3">
+      <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2606,39 +3905,39 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <f>SUM(B42:H42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:9" ht="12.3">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="2">
-        <v>45739.0</v>
+        <v>45739</v>
       </c>
       <c r="C43" s="2">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="D43" s="2">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="E43" s="2">
-        <v>45742.0</v>
+        <v>45742</v>
       </c>
       <c r="F43" s="2">
-        <v>45743.0</v>
+        <v>45743</v>
       </c>
       <c r="G43" s="2">
-        <v>45744.0</v>
+        <v>45744</v>
       </c>
       <c r="H43" s="2">
-        <v>45745.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7"/>
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.3">
+      <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2646,39 +3945,39 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <f>SUM(B44:H44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" ht="12.3">
+      <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="2">
-        <v>45746.0</v>
+        <v>45746</v>
       </c>
       <c r="C45" s="2">
-        <v>45747.0</v>
+        <v>45747</v>
       </c>
       <c r="D45" s="2">
-        <v>45748.0</v>
+        <v>45748</v>
       </c>
       <c r="E45" s="2">
-        <v>45749.0</v>
+        <v>45749</v>
       </c>
       <c r="F45" s="2">
-        <v>45750.0</v>
+        <v>45750</v>
       </c>
       <c r="G45" s="2">
-        <v>45751.0</v>
+        <v>45751</v>
       </c>
       <c r="H45" s="2">
-        <v>45752.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7"/>
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.3">
+      <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2686,39 +3985,39 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <f>SUM(B46:H46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:9" ht="12.3">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="2">
-        <v>45753.0</v>
+        <v>45753</v>
       </c>
       <c r="C47" s="2">
-        <v>45754.0</v>
+        <v>45754</v>
       </c>
       <c r="D47" s="2">
-        <v>45755.0</v>
+        <v>45755</v>
       </c>
       <c r="E47" s="2">
-        <v>45756.0</v>
+        <v>45756</v>
       </c>
       <c r="F47" s="2">
-        <v>45757.0</v>
+        <v>45757</v>
       </c>
       <c r="G47" s="2">
-        <v>45758.0</v>
+        <v>45758</v>
       </c>
       <c r="H47" s="2">
-        <v>45759.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7"/>
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.3">
+      <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2726,39 +4025,39 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <f>SUM(B48:H48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:9" ht="12.3">
+      <c r="A49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="2">
-        <v>45760.0</v>
+        <v>45760</v>
       </c>
       <c r="C49" s="2">
-        <v>45761.0</v>
+        <v>45761</v>
       </c>
       <c r="D49" s="2">
-        <v>45762.0</v>
+        <v>45762</v>
       </c>
       <c r="E49" s="2">
-        <v>45763.0</v>
+        <v>45763</v>
       </c>
       <c r="F49" s="2">
-        <v>45764.0</v>
+        <v>45764</v>
       </c>
       <c r="G49" s="2">
-        <v>45765.0</v>
+        <v>45765</v>
       </c>
       <c r="H49" s="2">
-        <v>45766.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7"/>
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.3">
+      <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2766,87 +4065,89 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="6">
+      <c r="I50" s="3">
         <f>SUM(B50:H50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:9" ht="12.3">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="2">
-        <v>45767.0</v>
+        <v>45767</v>
       </c>
       <c r="C51" s="2">
-        <v>45768.0</v>
+        <v>45768</v>
       </c>
       <c r="D51" s="2">
-        <v>45769.0</v>
+        <v>45769</v>
       </c>
       <c r="E51" s="2">
-        <v>45770.0</v>
+        <v>45770</v>
       </c>
       <c r="F51" s="2">
-        <v>45771.0</v>
+        <v>45771</v>
       </c>
       <c r="G51" s="2">
-        <v>45772.0</v>
+        <v>45772</v>
       </c>
       <c r="H51" s="2">
-        <v>45773.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="I52" s="6">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.3">
+      <c r="I52" s="3">
         <f>SUM(B52:H52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:9" ht="12.3">
+      <c r="A53" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45565.0</v>
+        <v>45565</v>
       </c>
       <c r="C1" s="2">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="D1" s="2">
-        <v>45567.0</v>
+        <v>45567</v>
       </c>
       <c r="E1" s="2">
-        <v>45568.0</v>
+        <v>45568</v>
       </c>
       <c r="F1" s="2">
-        <v>45569.0</v>
+        <v>45569</v>
       </c>
       <c r="G1" s="2">
-        <v>45570.0</v>
+        <v>45570</v>
       </c>
       <c r="H1" s="2">
-        <v>45571.0</v>
+        <v>45571</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -2859,186 +4160,196 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5">
-        <v>1.92</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6">
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>3.92</v>
-      </c>
-      <c r="M2" s="6">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3">
         <f>SUM(I2:I52)</f>
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45572.0</v>
+        <v>45572</v>
       </c>
       <c r="C3" s="2">
-        <v>45573.0</v>
+        <v>45573</v>
       </c>
       <c r="D3" s="2">
-        <v>45574.0</v>
+        <v>45574</v>
       </c>
       <c r="E3" s="2">
-        <v>45575.0</v>
+        <v>45575</v>
       </c>
       <c r="F3" s="2">
-        <v>45576.0</v>
+        <v>45576</v>
       </c>
       <c r="G3" s="2">
-        <v>45577.0</v>
+        <v>45577</v>
       </c>
       <c r="H3" s="2">
-        <v>45578.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <f>SUM(B4:H4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>45579.0</v>
+        <v>45579</v>
       </c>
       <c r="C5" s="2">
-        <v>45580.0</v>
+        <v>45580</v>
       </c>
       <c r="D5" s="2">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="E5" s="2">
-        <v>45582.0</v>
+        <v>45582</v>
       </c>
       <c r="F5" s="2">
-        <v>45583.0</v>
+        <v>45583</v>
       </c>
       <c r="G5" s="2">
-        <v>45584.0</v>
+        <v>45584</v>
       </c>
       <c r="H5" s="2">
-        <v>45585.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <v>2.5</v>
+      <c r="C6" s="4">
+        <v>2</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <f>SUM(B6:H6)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>45586.0</v>
+        <v>45586</v>
       </c>
       <c r="C7" s="2">
-        <v>45587.0</v>
+        <v>45587</v>
       </c>
       <c r="D7" s="2">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="E7" s="2">
-        <v>45589.0</v>
+        <v>45589</v>
       </c>
       <c r="F7" s="2">
-        <v>45590.0</v>
+        <v>45590</v>
       </c>
       <c r="G7" s="2">
-        <v>45591.0</v>
+        <v>45591</v>
       </c>
       <c r="H7" s="2">
-        <v>45592.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>2.0</v>
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.5</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <f>SUM(B8:H8)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>45593.0</v>
+        <v>45593</v>
       </c>
       <c r="C9" s="2">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="D9" s="2">
-        <v>45595.0</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2">
-        <v>45596.0</v>
+        <v>45596</v>
       </c>
       <c r="F9" s="2">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="G9" s="2">
-        <v>45598.0</v>
+        <v>45598</v>
       </c>
       <c r="H9" s="2">
-        <v>45599.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3046,39 +4357,39 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <f>SUM(B10:H10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>45600.0</v>
+        <v>45600</v>
       </c>
       <c r="C11" s="2">
-        <v>45601.0</v>
+        <v>45601</v>
       </c>
       <c r="D11" s="2">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="E11" s="2">
-        <v>45603.0</v>
+        <v>45603</v>
       </c>
       <c r="F11" s="2">
-        <v>45604.0</v>
+        <v>45604</v>
       </c>
       <c r="G11" s="2">
-        <v>45605.0</v>
+        <v>45605</v>
       </c>
       <c r="H11" s="2">
-        <v>45606.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3086,39 +4397,39 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <f>SUM(B12:H12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45607.0</v>
+        <v>45607</v>
       </c>
       <c r="C13" s="2">
-        <v>45608.0</v>
+        <v>45608</v>
       </c>
       <c r="D13" s="2">
-        <v>45609.0</v>
+        <v>45609</v>
       </c>
       <c r="E13" s="2">
-        <v>45610.0</v>
+        <v>45610</v>
       </c>
       <c r="F13" s="2">
-        <v>45611.0</v>
+        <v>45611</v>
       </c>
       <c r="G13" s="2">
-        <v>45612.0</v>
+        <v>45612</v>
       </c>
       <c r="H13" s="2">
-        <v>45613.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3126,39 +4437,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>45613.0</v>
+        <v>45613</v>
       </c>
       <c r="C15" s="2">
-        <v>45614.0</v>
+        <v>45614</v>
       </c>
       <c r="D15" s="2">
-        <v>45615.0</v>
+        <v>45615</v>
       </c>
       <c r="E15" s="2">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="F15" s="2">
-        <v>45617.0</v>
+        <v>45617</v>
       </c>
       <c r="G15" s="2">
-        <v>45618.0</v>
+        <v>45618</v>
       </c>
       <c r="H15" s="2">
-        <v>45619.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3166,39 +4477,39 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <f>SUM(B16:H16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>45620.0</v>
+        <v>45620</v>
       </c>
       <c r="C17" s="2">
-        <v>45621.0</v>
+        <v>45621</v>
       </c>
       <c r="D17" s="2">
-        <v>45622.0</v>
+        <v>45622</v>
       </c>
       <c r="E17" s="2">
-        <v>45623.0</v>
+        <v>45623</v>
       </c>
       <c r="F17" s="2">
-        <v>45624.0</v>
+        <v>45624</v>
       </c>
       <c r="G17" s="2">
-        <v>45625.0</v>
+        <v>45625</v>
       </c>
       <c r="H17" s="2">
-        <v>45626.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3206,39 +4517,39 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <f>SUM(B18:H18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>45627.0</v>
+        <v>45627</v>
       </c>
       <c r="C19" s="2">
-        <v>45628.0</v>
+        <v>45628</v>
       </c>
       <c r="D19" s="2">
-        <v>45629.0</v>
+        <v>45629</v>
       </c>
       <c r="E19" s="2">
-        <v>45630.0</v>
+        <v>45630</v>
       </c>
       <c r="F19" s="2">
-        <v>45631.0</v>
+        <v>45631</v>
       </c>
       <c r="G19" s="2">
-        <v>45632.0</v>
+        <v>45632</v>
       </c>
       <c r="H19" s="2">
-        <v>45633.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3246,39 +4557,39 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <f>SUM(B20:H20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>45634.0</v>
+        <v>45634</v>
       </c>
       <c r="C21" s="2">
-        <v>45635.0</v>
+        <v>45635</v>
       </c>
       <c r="D21" s="2">
-        <v>45636.0</v>
+        <v>45636</v>
       </c>
       <c r="E21" s="2">
-        <v>45637.0</v>
+        <v>45637</v>
       </c>
       <c r="F21" s="2">
-        <v>45638.0</v>
+        <v>45638</v>
       </c>
       <c r="G21" s="2">
-        <v>45639.0</v>
+        <v>45639</v>
       </c>
       <c r="H21" s="2">
-        <v>45640.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3286,39 +4597,39 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <f>SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="C23" s="2">
-        <v>45671.0</v>
+        <v>45671</v>
       </c>
       <c r="D23" s="2">
-        <v>45672.0</v>
+        <v>45672</v>
       </c>
       <c r="E23" s="2">
-        <v>45673.0</v>
+        <v>45673</v>
       </c>
       <c r="F23" s="2">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="G23" s="2">
-        <v>45675.0</v>
+        <v>45675</v>
       </c>
       <c r="H23" s="2">
-        <v>45676.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3326,39 +4637,39 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <f>SUM(B24:H24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>45677.0</v>
+        <v>45677</v>
       </c>
       <c r="C25" s="2">
-        <v>45678.0</v>
+        <v>45678</v>
       </c>
       <c r="D25" s="2">
-        <v>45679.0</v>
+        <v>45679</v>
       </c>
       <c r="E25" s="2">
-        <v>45680.0</v>
+        <v>45680</v>
       </c>
       <c r="F25" s="2">
-        <v>45681.0</v>
+        <v>45681</v>
       </c>
       <c r="G25" s="2">
-        <v>45682.0</v>
+        <v>45682</v>
       </c>
       <c r="H25" s="2">
-        <v>45683.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3366,39 +4677,39 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <f>SUM(B26:H26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>45684.0</v>
+        <v>45684</v>
       </c>
       <c r="C27" s="2">
-        <v>45685.0</v>
+        <v>45685</v>
       </c>
       <c r="D27" s="2">
-        <v>45686.0</v>
+        <v>45686</v>
       </c>
       <c r="E27" s="2">
-        <v>45687.0</v>
+        <v>45687</v>
       </c>
       <c r="F27" s="2">
-        <v>45688.0</v>
+        <v>45688</v>
       </c>
       <c r="G27" s="2">
-        <v>45689.0</v>
+        <v>45689</v>
       </c>
       <c r="H27" s="2">
-        <v>45690.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7"/>
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.3">
+      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3406,39 +4717,39 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <f>SUM(B28:H28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:9" ht="12.3">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>45690.0</v>
+        <v>45690</v>
       </c>
       <c r="C29" s="2">
-        <v>45691.0</v>
+        <v>45691</v>
       </c>
       <c r="D29" s="2">
-        <v>45692.0</v>
+        <v>45692</v>
       </c>
       <c r="E29" s="2">
-        <v>45693.0</v>
+        <v>45693</v>
       </c>
       <c r="F29" s="2">
-        <v>45694.0</v>
+        <v>45694</v>
       </c>
       <c r="G29" s="2">
-        <v>45695.0</v>
+        <v>45695</v>
       </c>
       <c r="H29" s="2">
-        <v>45696.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7"/>
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3446,39 +4757,39 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <f>SUM(B30:H30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" ht="12.3">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2">
-        <v>45697.0</v>
+        <v>45697</v>
       </c>
       <c r="C31" s="2">
-        <v>45698.0</v>
+        <v>45698</v>
       </c>
       <c r="D31" s="2">
-        <v>45699.0</v>
+        <v>45699</v>
       </c>
       <c r="E31" s="2">
-        <v>45700.0</v>
+        <v>45700</v>
       </c>
       <c r="F31" s="2">
-        <v>45701.0</v>
+        <v>45701</v>
       </c>
       <c r="G31" s="2">
-        <v>45702.0</v>
+        <v>45702</v>
       </c>
       <c r="H31" s="2">
-        <v>45703.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7"/>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3486,39 +4797,39 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <f>SUM(B32:H32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:9" ht="12.3">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="2">
-        <v>45704.0</v>
+        <v>45704</v>
       </c>
       <c r="C33" s="2">
-        <v>45705.0</v>
+        <v>45705</v>
       </c>
       <c r="D33" s="2">
-        <v>45706.0</v>
+        <v>45706</v>
       </c>
       <c r="E33" s="2">
-        <v>45707.0</v>
+        <v>45707</v>
       </c>
       <c r="F33" s="2">
-        <v>45708.0</v>
+        <v>45708</v>
       </c>
       <c r="G33" s="2">
-        <v>45709.0</v>
+        <v>45709</v>
       </c>
       <c r="H33" s="2">
-        <v>45710.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7"/>
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.3">
+      <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3526,39 +4837,39 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <f>SUM(B34:H34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" ht="12.3">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>45711.0</v>
+        <v>45711</v>
       </c>
       <c r="C35" s="2">
-        <v>45712.0</v>
+        <v>45712</v>
       </c>
       <c r="D35" s="2">
-        <v>45713.0</v>
+        <v>45713</v>
       </c>
       <c r="E35" s="2">
-        <v>45714.0</v>
+        <v>45714</v>
       </c>
       <c r="F35" s="2">
-        <v>45715.0</v>
+        <v>45715</v>
       </c>
       <c r="G35" s="2">
-        <v>45716.0</v>
+        <v>45716</v>
       </c>
       <c r="H35" s="2">
-        <v>45717.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3566,39 +4877,39 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <f>SUM(B36:H36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:9" ht="12.3">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="2">
-        <v>45718.0</v>
+        <v>45718</v>
       </c>
       <c r="C37" s="2">
-        <v>45719.0</v>
+        <v>45719</v>
       </c>
       <c r="D37" s="2">
-        <v>45720.0</v>
+        <v>45720</v>
       </c>
       <c r="E37" s="2">
-        <v>45721.0</v>
+        <v>45721</v>
       </c>
       <c r="F37" s="2">
-        <v>45722.0</v>
+        <v>45722</v>
       </c>
       <c r="G37" s="2">
-        <v>45723.0</v>
+        <v>45723</v>
       </c>
       <c r="H37" s="2">
-        <v>45724.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3606,39 +4917,39 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <f>SUM(B38:H38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" ht="12.3">
+      <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="2">
-        <v>45725.0</v>
+        <v>45725</v>
       </c>
       <c r="C39" s="2">
-        <v>45726.0</v>
+        <v>45726</v>
       </c>
       <c r="D39" s="2">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="E39" s="2">
-        <v>45728.0</v>
+        <v>45728</v>
       </c>
       <c r="F39" s="2">
-        <v>45729.0</v>
+        <v>45729</v>
       </c>
       <c r="G39" s="2">
-        <v>45730.0</v>
+        <v>45730</v>
       </c>
       <c r="H39" s="2">
-        <v>45731.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7"/>
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.3">
+      <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3646,39 +4957,39 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="6">
+      <c r="I40" s="3">
         <f>SUM(B40:H40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:9" ht="12.3">
+      <c r="A41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="2">
-        <v>45732.0</v>
+        <v>45732</v>
       </c>
       <c r="C41" s="2">
-        <v>45733.0</v>
+        <v>45733</v>
       </c>
       <c r="D41" s="2">
-        <v>45734.0</v>
+        <v>45734</v>
       </c>
       <c r="E41" s="2">
-        <v>45735.0</v>
+        <v>45735</v>
       </c>
       <c r="F41" s="2">
-        <v>45736.0</v>
+        <v>45736</v>
       </c>
       <c r="G41" s="2">
-        <v>45737.0</v>
+        <v>45737</v>
       </c>
       <c r="H41" s="2">
-        <v>45738.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7"/>
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.3">
+      <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3686,39 +4997,39 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <f>SUM(B42:H42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:9" ht="12.3">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="2">
-        <v>45739.0</v>
+        <v>45739</v>
       </c>
       <c r="C43" s="2">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="D43" s="2">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="E43" s="2">
-        <v>45742.0</v>
+        <v>45742</v>
       </c>
       <c r="F43" s="2">
-        <v>45743.0</v>
+        <v>45743</v>
       </c>
       <c r="G43" s="2">
-        <v>45744.0</v>
+        <v>45744</v>
       </c>
       <c r="H43" s="2">
-        <v>45745.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7"/>
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.3">
+      <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3726,39 +5037,39 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <f>SUM(B44:H44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" ht="12.3">
+      <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="2">
-        <v>45746.0</v>
+        <v>45746</v>
       </c>
       <c r="C45" s="2">
-        <v>45747.0</v>
+        <v>45747</v>
       </c>
       <c r="D45" s="2">
-        <v>45748.0</v>
+        <v>45748</v>
       </c>
       <c r="E45" s="2">
-        <v>45749.0</v>
+        <v>45749</v>
       </c>
       <c r="F45" s="2">
-        <v>45750.0</v>
+        <v>45750</v>
       </c>
       <c r="G45" s="2">
-        <v>45751.0</v>
+        <v>45751</v>
       </c>
       <c r="H45" s="2">
-        <v>45752.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7"/>
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.3">
+      <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3766,39 +5077,39 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <f>SUM(B46:H46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:9" ht="12.3">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="2">
-        <v>45753.0</v>
+        <v>45753</v>
       </c>
       <c r="C47" s="2">
-        <v>45754.0</v>
+        <v>45754</v>
       </c>
       <c r="D47" s="2">
-        <v>45755.0</v>
+        <v>45755</v>
       </c>
       <c r="E47" s="2">
-        <v>45756.0</v>
+        <v>45756</v>
       </c>
       <c r="F47" s="2">
-        <v>45757.0</v>
+        <v>45757</v>
       </c>
       <c r="G47" s="2">
-        <v>45758.0</v>
+        <v>45758</v>
       </c>
       <c r="H47" s="2">
-        <v>45759.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7"/>
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.3">
+      <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3806,39 +5117,39 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <f>SUM(B48:H48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:9" ht="12.3">
+      <c r="A49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="2">
-        <v>45760.0</v>
+        <v>45760</v>
       </c>
       <c r="C49" s="2">
-        <v>45761.0</v>
+        <v>45761</v>
       </c>
       <c r="D49" s="2">
-        <v>45762.0</v>
+        <v>45762</v>
       </c>
       <c r="E49" s="2">
-        <v>45763.0</v>
+        <v>45763</v>
       </c>
       <c r="F49" s="2">
-        <v>45764.0</v>
+        <v>45764</v>
       </c>
       <c r="G49" s="2">
-        <v>45765.0</v>
+        <v>45765</v>
       </c>
       <c r="H49" s="2">
-        <v>45766.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7"/>
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.3">
+      <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3846,89 +5157,87 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="6">
+      <c r="I50" s="3">
         <f>SUM(B50:H50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:9" ht="12.3">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="2">
-        <v>45767.0</v>
+        <v>45767</v>
       </c>
       <c r="C51" s="2">
-        <v>45768.0</v>
+        <v>45768</v>
       </c>
       <c r="D51" s="2">
-        <v>45769.0</v>
+        <v>45769</v>
       </c>
       <c r="E51" s="2">
-        <v>45770.0</v>
+        <v>45770</v>
       </c>
       <c r="F51" s="2">
-        <v>45771.0</v>
+        <v>45771</v>
       </c>
       <c r="G51" s="2">
-        <v>45772.0</v>
+        <v>45772</v>
       </c>
       <c r="H51" s="2">
-        <v>45773.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="I52" s="6">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.3">
+      <c r="I52" s="3">
         <f>SUM(B52:H52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:9" ht="12.3">
+      <c r="A53" s="6"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>45565.0</v>
+        <v>45565</v>
       </c>
       <c r="C1" s="2">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="D1" s="2">
-        <v>45567.0</v>
+        <v>45567</v>
       </c>
       <c r="E1" s="2">
-        <v>45568.0</v>
+        <v>45568</v>
       </c>
       <c r="F1" s="2">
-        <v>45569.0</v>
+        <v>45569</v>
       </c>
       <c r="G1" s="2">
-        <v>45570.0</v>
+        <v>45570</v>
       </c>
       <c r="H1" s="2">
-        <v>45571.0</v>
+        <v>45571</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -3941,196 +5250,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>7</v>
-      </c>
-      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="M2" s="3">
         <f>SUM(I2:I52)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45572.0</v>
+        <v>45572</v>
       </c>
       <c r="C3" s="2">
-        <v>45573.0</v>
+        <v>45573</v>
       </c>
       <c r="D3" s="2">
-        <v>45574.0</v>
+        <v>45574</v>
       </c>
       <c r="E3" s="2">
-        <v>45575.0</v>
+        <v>45575</v>
       </c>
       <c r="F3" s="2">
-        <v>45576.0</v>
+        <v>45576</v>
       </c>
       <c r="G3" s="2">
-        <v>45577.0</v>
+        <v>45577</v>
       </c>
       <c r="H3" s="2">
-        <v>45578.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.5</v>
-      </c>
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <f>SUM(B4:H4)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>45579.0</v>
+        <v>45579</v>
       </c>
       <c r="C5" s="2">
-        <v>45580.0</v>
+        <v>45580</v>
       </c>
       <c r="D5" s="2">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="E5" s="2">
-        <v>45582.0</v>
+        <v>45582</v>
       </c>
       <c r="F5" s="2">
-        <v>45583.0</v>
+        <v>45583</v>
       </c>
       <c r="G5" s="2">
-        <v>45584.0</v>
+        <v>45584</v>
       </c>
       <c r="H5" s="2">
-        <v>45585.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <v>2.0</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <f>SUM(B6:H6)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>45586.0</v>
+        <v>45586</v>
       </c>
       <c r="C7" s="2">
-        <v>45587.0</v>
+        <v>45587</v>
       </c>
       <c r="D7" s="2">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="E7" s="2">
-        <v>45589.0</v>
+        <v>45589</v>
       </c>
       <c r="F7" s="2">
-        <v>45590.0</v>
+        <v>45590</v>
       </c>
       <c r="G7" s="2">
-        <v>45591.0</v>
+        <v>45591</v>
       </c>
       <c r="H7" s="2">
-        <v>45592.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.5</v>
-      </c>
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <f>SUM(B8:H8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>45593.0</v>
+        <v>45593</v>
       </c>
       <c r="C9" s="2">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="D9" s="2">
-        <v>45595.0</v>
+        <v>45595</v>
       </c>
       <c r="E9" s="2">
-        <v>45596.0</v>
+        <v>45596</v>
       </c>
       <c r="F9" s="2">
-        <v>45597.0</v>
+        <v>45597</v>
       </c>
       <c r="G9" s="2">
-        <v>45598.0</v>
+        <v>45598</v>
       </c>
       <c r="H9" s="2">
-        <v>45599.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4138,39 +5426,39 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <f>SUM(B10:H10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>45600.0</v>
+        <v>45600</v>
       </c>
       <c r="C11" s="2">
-        <v>45601.0</v>
+        <v>45601</v>
       </c>
       <c r="D11" s="2">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="E11" s="2">
-        <v>45603.0</v>
+        <v>45603</v>
       </c>
       <c r="F11" s="2">
-        <v>45604.0</v>
+        <v>45604</v>
       </c>
       <c r="G11" s="2">
-        <v>45605.0</v>
+        <v>45605</v>
       </c>
       <c r="H11" s="2">
-        <v>45606.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4178,39 +5466,39 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <f>SUM(B12:H12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45607.0</v>
+        <v>45607</v>
       </c>
       <c r="C13" s="2">
-        <v>45608.0</v>
+        <v>45608</v>
       </c>
       <c r="D13" s="2">
-        <v>45609.0</v>
+        <v>45609</v>
       </c>
       <c r="E13" s="2">
-        <v>45610.0</v>
+        <v>45610</v>
       </c>
       <c r="F13" s="2">
-        <v>45611.0</v>
+        <v>45611</v>
       </c>
       <c r="G13" s="2">
-        <v>45612.0</v>
+        <v>45612</v>
       </c>
       <c r="H13" s="2">
-        <v>45613.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4218,39 +5506,39 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <f>SUM(B14:H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>45613.0</v>
+        <v>45613</v>
       </c>
       <c r="C15" s="2">
-        <v>45614.0</v>
+        <v>45614</v>
       </c>
       <c r="D15" s="2">
-        <v>45615.0</v>
+        <v>45615</v>
       </c>
       <c r="E15" s="2">
-        <v>45616.0</v>
+        <v>45616</v>
       </c>
       <c r="F15" s="2">
-        <v>45617.0</v>
+        <v>45617</v>
       </c>
       <c r="G15" s="2">
-        <v>45618.0</v>
+        <v>45618</v>
       </c>
       <c r="H15" s="2">
-        <v>45619.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4258,39 +5546,39 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <f>SUM(B16:H16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>45620.0</v>
+        <v>45620</v>
       </c>
       <c r="C17" s="2">
-        <v>45621.0</v>
+        <v>45621</v>
       </c>
       <c r="D17" s="2">
-        <v>45622.0</v>
+        <v>45622</v>
       </c>
       <c r="E17" s="2">
-        <v>45623.0</v>
+        <v>45623</v>
       </c>
       <c r="F17" s="2">
-        <v>45624.0</v>
+        <v>45624</v>
       </c>
       <c r="G17" s="2">
-        <v>45625.0</v>
+        <v>45625</v>
       </c>
       <c r="H17" s="2">
-        <v>45626.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4298,39 +5586,39 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <f>SUM(B18:H18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>45627.0</v>
+        <v>45627</v>
       </c>
       <c r="C19" s="2">
-        <v>45628.0</v>
+        <v>45628</v>
       </c>
       <c r="D19" s="2">
-        <v>45629.0</v>
+        <v>45629</v>
       </c>
       <c r="E19" s="2">
-        <v>45630.0</v>
+        <v>45630</v>
       </c>
       <c r="F19" s="2">
-        <v>45631.0</v>
+        <v>45631</v>
       </c>
       <c r="G19" s="2">
-        <v>45632.0</v>
+        <v>45632</v>
       </c>
       <c r="H19" s="2">
-        <v>45633.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4338,39 +5626,39 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <f>SUM(B20:H20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>45634.0</v>
+        <v>45634</v>
       </c>
       <c r="C21" s="2">
-        <v>45635.0</v>
+        <v>45635</v>
       </c>
       <c r="D21" s="2">
-        <v>45636.0</v>
+        <v>45636</v>
       </c>
       <c r="E21" s="2">
-        <v>45637.0</v>
+        <v>45637</v>
       </c>
       <c r="F21" s="2">
-        <v>45638.0</v>
+        <v>45638</v>
       </c>
       <c r="G21" s="2">
-        <v>45639.0</v>
+        <v>45639</v>
       </c>
       <c r="H21" s="2">
-        <v>45640.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4378,39 +5666,39 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <f>SUM(B22:H22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="C23" s="2">
-        <v>45671.0</v>
+        <v>45671</v>
       </c>
       <c r="D23" s="2">
-        <v>45672.0</v>
+        <v>45672</v>
       </c>
       <c r="E23" s="2">
-        <v>45673.0</v>
+        <v>45673</v>
       </c>
       <c r="F23" s="2">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="G23" s="2">
-        <v>45675.0</v>
+        <v>45675</v>
       </c>
       <c r="H23" s="2">
-        <v>45676.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4418,39 +5706,39 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <f>SUM(B24:H24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>45677.0</v>
+        <v>45677</v>
       </c>
       <c r="C25" s="2">
-        <v>45678.0</v>
+        <v>45678</v>
       </c>
       <c r="D25" s="2">
-        <v>45679.0</v>
+        <v>45679</v>
       </c>
       <c r="E25" s="2">
-        <v>45680.0</v>
+        <v>45680</v>
       </c>
       <c r="F25" s="2">
-        <v>45681.0</v>
+        <v>45681</v>
       </c>
       <c r="G25" s="2">
-        <v>45682.0</v>
+        <v>45682</v>
       </c>
       <c r="H25" s="2">
-        <v>45683.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4458,39 +5746,39 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <f>SUM(B26:H26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>45684.0</v>
+        <v>45684</v>
       </c>
       <c r="C27" s="2">
-        <v>45685.0</v>
+        <v>45685</v>
       </c>
       <c r="D27" s="2">
-        <v>45686.0</v>
+        <v>45686</v>
       </c>
       <c r="E27" s="2">
-        <v>45687.0</v>
+        <v>45687</v>
       </c>
       <c r="F27" s="2">
-        <v>45688.0</v>
+        <v>45688</v>
       </c>
       <c r="G27" s="2">
-        <v>45689.0</v>
+        <v>45689</v>
       </c>
       <c r="H27" s="2">
-        <v>45690.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7"/>
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.3">
+      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4498,39 +5786,39 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <f>SUM(B28:H28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:9" ht="12.3">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>45690.0</v>
+        <v>45690</v>
       </c>
       <c r="C29" s="2">
-        <v>45691.0</v>
+        <v>45691</v>
       </c>
       <c r="D29" s="2">
-        <v>45692.0</v>
+        <v>45692</v>
       </c>
       <c r="E29" s="2">
-        <v>45693.0</v>
+        <v>45693</v>
       </c>
       <c r="F29" s="2">
-        <v>45694.0</v>
+        <v>45694</v>
       </c>
       <c r="G29" s="2">
-        <v>45695.0</v>
+        <v>45695</v>
       </c>
       <c r="H29" s="2">
-        <v>45696.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7"/>
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4538,39 +5826,39 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <f>SUM(B30:H30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" ht="12.3">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2">
-        <v>45697.0</v>
+        <v>45697</v>
       </c>
       <c r="C31" s="2">
-        <v>45698.0</v>
+        <v>45698</v>
       </c>
       <c r="D31" s="2">
-        <v>45699.0</v>
+        <v>45699</v>
       </c>
       <c r="E31" s="2">
-        <v>45700.0</v>
+        <v>45700</v>
       </c>
       <c r="F31" s="2">
-        <v>45701.0</v>
+        <v>45701</v>
       </c>
       <c r="G31" s="2">
-        <v>45702.0</v>
+        <v>45702</v>
       </c>
       <c r="H31" s="2">
-        <v>45703.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7"/>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4578,39 +5866,39 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <f>SUM(B32:H32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:9" ht="12.3">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="2">
-        <v>45704.0</v>
+        <v>45704</v>
       </c>
       <c r="C33" s="2">
-        <v>45705.0</v>
+        <v>45705</v>
       </c>
       <c r="D33" s="2">
-        <v>45706.0</v>
+        <v>45706</v>
       </c>
       <c r="E33" s="2">
-        <v>45707.0</v>
+        <v>45707</v>
       </c>
       <c r="F33" s="2">
-        <v>45708.0</v>
+        <v>45708</v>
       </c>
       <c r="G33" s="2">
-        <v>45709.0</v>
+        <v>45709</v>
       </c>
       <c r="H33" s="2">
-        <v>45710.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7"/>
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.3">
+      <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -4618,39 +5906,39 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <f>SUM(B34:H34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" ht="12.3">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>45711.0</v>
+        <v>45711</v>
       </c>
       <c r="C35" s="2">
-        <v>45712.0</v>
+        <v>45712</v>
       </c>
       <c r="D35" s="2">
-        <v>45713.0</v>
+        <v>45713</v>
       </c>
       <c r="E35" s="2">
-        <v>45714.0</v>
+        <v>45714</v>
       </c>
       <c r="F35" s="2">
-        <v>45715.0</v>
+        <v>45715</v>
       </c>
       <c r="G35" s="2">
-        <v>45716.0</v>
+        <v>45716</v>
       </c>
       <c r="H35" s="2">
-        <v>45717.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -4658,39 +5946,39 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <f>SUM(B36:H36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:9" ht="12.3">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="2">
-        <v>45718.0</v>
+        <v>45718</v>
       </c>
       <c r="C37" s="2">
-        <v>45719.0</v>
+        <v>45719</v>
       </c>
       <c r="D37" s="2">
-        <v>45720.0</v>
+        <v>45720</v>
       </c>
       <c r="E37" s="2">
-        <v>45721.0</v>
+        <v>45721</v>
       </c>
       <c r="F37" s="2">
-        <v>45722.0</v>
+        <v>45722</v>
       </c>
       <c r="G37" s="2">
-        <v>45723.0</v>
+        <v>45723</v>
       </c>
       <c r="H37" s="2">
-        <v>45724.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4698,39 +5986,39 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <f>SUM(B38:H38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" ht="12.3">
+      <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="2">
-        <v>45725.0</v>
+        <v>45725</v>
       </c>
       <c r="C39" s="2">
-        <v>45726.0</v>
+        <v>45726</v>
       </c>
       <c r="D39" s="2">
-        <v>45727.0</v>
+        <v>45727</v>
       </c>
       <c r="E39" s="2">
-        <v>45728.0</v>
+        <v>45728</v>
       </c>
       <c r="F39" s="2">
-        <v>45729.0</v>
+        <v>45729</v>
       </c>
       <c r="G39" s="2">
-        <v>45730.0</v>
+        <v>45730</v>
       </c>
       <c r="H39" s="2">
-        <v>45731.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7"/>
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.3">
+      <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -4738,39 +6026,39 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="6">
+      <c r="I40" s="3">
         <f>SUM(B40:H40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:9" ht="12.3">
+      <c r="A41" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="2">
-        <v>45732.0</v>
+        <v>45732</v>
       </c>
       <c r="C41" s="2">
-        <v>45733.0</v>
+        <v>45733</v>
       </c>
       <c r="D41" s="2">
-        <v>45734.0</v>
+        <v>45734</v>
       </c>
       <c r="E41" s="2">
-        <v>45735.0</v>
+        <v>45735</v>
       </c>
       <c r="F41" s="2">
-        <v>45736.0</v>
+        <v>45736</v>
       </c>
       <c r="G41" s="2">
-        <v>45737.0</v>
+        <v>45737</v>
       </c>
       <c r="H41" s="2">
-        <v>45738.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7"/>
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.3">
+      <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -4778,39 +6066,39 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <f>SUM(B42:H42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:9" ht="12.3">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="2">
-        <v>45739.0</v>
+        <v>45739</v>
       </c>
       <c r="C43" s="2">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="D43" s="2">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="E43" s="2">
-        <v>45742.0</v>
+        <v>45742</v>
       </c>
       <c r="F43" s="2">
-        <v>45743.0</v>
+        <v>45743</v>
       </c>
       <c r="G43" s="2">
-        <v>45744.0</v>
+        <v>45744</v>
       </c>
       <c r="H43" s="2">
-        <v>45745.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7"/>
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.3">
+      <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -4818,39 +6106,39 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <f>SUM(B44:H44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" ht="12.3">
+      <c r="A45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="2">
-        <v>45746.0</v>
+        <v>45746</v>
       </c>
       <c r="C45" s="2">
-        <v>45747.0</v>
+        <v>45747</v>
       </c>
       <c r="D45" s="2">
-        <v>45748.0</v>
+        <v>45748</v>
       </c>
       <c r="E45" s="2">
-        <v>45749.0</v>
+        <v>45749</v>
       </c>
       <c r="F45" s="2">
-        <v>45750.0</v>
+        <v>45750</v>
       </c>
       <c r="G45" s="2">
-        <v>45751.0</v>
+        <v>45751</v>
       </c>
       <c r="H45" s="2">
-        <v>45752.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7"/>
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.3">
+      <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4858,39 +6146,39 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <f>SUM(B46:H46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:9" ht="12.3">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="2">
-        <v>45753.0</v>
+        <v>45753</v>
       </c>
       <c r="C47" s="2">
-        <v>45754.0</v>
+        <v>45754</v>
       </c>
       <c r="D47" s="2">
-        <v>45755.0</v>
+        <v>45755</v>
       </c>
       <c r="E47" s="2">
-        <v>45756.0</v>
+        <v>45756</v>
       </c>
       <c r="F47" s="2">
-        <v>45757.0</v>
+        <v>45757</v>
       </c>
       <c r="G47" s="2">
-        <v>45758.0</v>
+        <v>45758</v>
       </c>
       <c r="H47" s="2">
-        <v>45759.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7"/>
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.3">
+      <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -4898,39 +6186,39 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <f>SUM(B48:H48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:9" ht="12.3">
+      <c r="A49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="2">
-        <v>45760.0</v>
+        <v>45760</v>
       </c>
       <c r="C49" s="2">
-        <v>45761.0</v>
+        <v>45761</v>
       </c>
       <c r="D49" s="2">
-        <v>45762.0</v>
+        <v>45762</v>
       </c>
       <c r="E49" s="2">
-        <v>45763.0</v>
+        <v>45763</v>
       </c>
       <c r="F49" s="2">
-        <v>45764.0</v>
+        <v>45764</v>
       </c>
       <c r="G49" s="2">
-        <v>45765.0</v>
+        <v>45765</v>
       </c>
       <c r="H49" s="2">
-        <v>45766.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7"/>
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.3">
+      <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -4938,1115 +6226,47 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="6">
+      <c r="I50" s="3">
         <f>SUM(B50:H50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:9" ht="12.3">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="2">
-        <v>45767.0</v>
+        <v>45767</v>
       </c>
       <c r="C51" s="2">
-        <v>45768.0</v>
+        <v>45768</v>
       </c>
       <c r="D51" s="2">
-        <v>45769.0</v>
+        <v>45769</v>
       </c>
       <c r="E51" s="2">
-        <v>45770.0</v>
+        <v>45770</v>
       </c>
       <c r="F51" s="2">
-        <v>45771.0</v>
+        <v>45771</v>
       </c>
       <c r="G51" s="2">
-        <v>45772.0</v>
+        <v>45772</v>
       </c>
       <c r="H51" s="2">
-        <v>45773.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="I52" s="6">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12.3">
+      <c r="I52" s="3">
         <f>SUM(B52:H52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:9" ht="12.3">
+      <c r="A53" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>45565.0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45566.0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>45567.0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>45568.0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>45569.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>45570.0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>45571.0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6">
-        <f>SUM(B2:H2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="M2" s="6">
-        <f>SUM(I2:I52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45572.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45573.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45574.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45575.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45576.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45577.0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45578.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6">
-        <f>SUM(B4:H4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45579.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45580.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45581.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45582.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45583.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45584.0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45585.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6">
-        <f>SUM(B6:H6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45586.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45587.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45588.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45589.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45590.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45591.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45592.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6">
-        <f>SUM(B8:H8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45593.0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45594.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45595.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45596.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45597.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45598.0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45599.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6">
-        <f>SUM(B10:H10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45600.0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45601.0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45602.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45603.0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45604.0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45605.0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45606.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6">
-        <f>SUM(B12:H12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45607.0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45608.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45609.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45610.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45611.0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45612.0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45613.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6">
-        <f>SUM(B14:H14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45613.0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45614.0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45615.0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>45616.0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45617.0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45618.0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45619.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6">
-        <f>SUM(B16:H16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45620.0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45621.0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45622.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45623.0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45624.0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45625.0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45626.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6">
-        <f>SUM(B18:H18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45627.0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45628.0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45629.0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>45630.0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45631.0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>45632.0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>45633.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6">
-        <f>SUM(B20:H20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45634.0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45635.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45636.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>45637.0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45638.0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45639.0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>45640.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6">
-        <f>SUM(B22:H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2">
-        <v>45670.0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>45671.0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45672.0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>45673.0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45674.0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>45675.0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>45676.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6">
-        <f>SUM(B24:H24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45677.0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45678.0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45679.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>45680.0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>45681.0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>45682.0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>45683.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6">
-        <f>SUM(B26:H26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45684.0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45685.0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45686.0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>45687.0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>45688.0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>45689.0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>45690.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6">
-        <f>SUM(B28:H28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45690.0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>45691.0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45692.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45693.0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>45694.0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>45695.0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>45696.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6">
-        <f>SUM(B30:H30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45697.0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>45698.0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45699.0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>45700.0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45701.0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>45702.0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>45703.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="6">
-        <f>SUM(B32:H32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45704.0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>45705.0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45706.0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45707.0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>45708.0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>45709.0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>45710.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6">
-        <f>SUM(B34:H34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45711.0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>45712.0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45713.0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45714.0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>45715.0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>45716.0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>45717.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6">
-        <f>SUM(B36:H36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45718.0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>45719.0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>45720.0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>45721.0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>45722.0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>45723.0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>45724.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="6">
-        <f>SUM(B38:H38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45725.0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>45726.0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45727.0</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45728.0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>45729.0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>45730.0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>45731.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="6">
-        <f>SUM(B40:H40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45732.0</v>
-      </c>
-      <c r="C41" s="2">
-        <v>45733.0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45734.0</v>
-      </c>
-      <c r="E41" s="2">
-        <v>45735.0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>45736.0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>45737.0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>45738.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="7"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="6">
-        <f>SUM(B42:H42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45739.0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>45740.0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45741.0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>45742.0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>45743.0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>45744.0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>45745.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="6">
-        <f>SUM(B44:H44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45746.0</v>
-      </c>
-      <c r="C45" s="2">
-        <v>45747.0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>45748.0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>45749.0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>45750.0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>45751.0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>45752.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="6">
-        <f>SUM(B46:H46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45753.0</v>
-      </c>
-      <c r="C47" s="2">
-        <v>45754.0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45755.0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>45756.0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>45757.0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>45758.0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>45759.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="6">
-        <f>SUM(B48:H48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45760.0</v>
-      </c>
-      <c r="C49" s="2">
-        <v>45761.0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45762.0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>45763.0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>45764.0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>45765.0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>45766.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="6">
-        <f>SUM(B50:H50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45767.0</v>
-      </c>
-      <c r="C51" s="2">
-        <v>45768.0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45769.0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>45770.0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>45771.0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>45772.0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>45773.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="I52" s="6">
-        <f>SUM(B52:H52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CEN3907C Effort Log.xlsx
+++ b/CEN3907C Effort Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Rico's Stuff\School\Courses\CEN3907C\GatorBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB71E9C8-4837-4016-85B7-4D8F94C9DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006693AF-B5C0-41AE-AAC2-3821C25A954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="12318" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Joshua" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,19 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -846,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1"/>
@@ -912,7 +925,7 @@
       </c>
       <c r="M2" s="3">
         <f>SUM(I2:I52)</f>
-        <v>26</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -1037,14 +1050,18 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3">
         <f>SUM(B8:H8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
@@ -1077,18 +1094,18 @@
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3">
         <f>SUM(B10:H10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
@@ -1125,14 +1142,14 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3">
         <f>SUM(B12:H12)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
@@ -1165,16 +1182,18 @@
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3">
         <f>SUM(B14:H14)</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
@@ -1206,15 +1225,23 @@
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3">
         <f>SUM(B16:H16)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -1934,7 +1961,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
